--- a/data-in-workbook.xlsx
+++ b/data-in-workbook.xlsx
@@ -492,6 +492,1012 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>8.51776E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1258112E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.74710272E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.44537088E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.35332352E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.909545984E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.76236032E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.168179712E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4848768E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.06056192E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5894436096E9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.584624384E9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.07021513728E10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9664128E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9789174528E10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8898944E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.61753829888E10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.197212928E10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.595136E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.880216672E11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.689555712E8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.640956416E8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>465817.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>492108.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>397875.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>359347.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>413952.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.207156864E9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5186432E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4492672E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.133152E8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.43077376E7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.25037824E7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.65328384E7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.31135744E7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.93399552E7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.14018304E7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.3968384E7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1606784E7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.8080128E7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.0802321408E9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0221535744E9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0802592E10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.54450688E7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.98462192128E10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.145437952E8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.62348223744E10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.36800724992E10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.75693312E7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.881518022144E11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="768180656"/>
+        <c:axId val="768178336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="768180656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768178336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768178336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768180656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output1_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -801,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +2945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2406,6 +3414,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-in-workbook.xlsx
+++ b/data-in-workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
     <sheet name="Averages" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="output1_1" localSheetId="0">Sheet1!$B$1:$B$105</definedName>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="64">
   <si>
     <t>------------------------</t>
   </si>
@@ -349,6 +350,12 @@
   <si>
     <t>Average:</t>
   </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +468,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -471,6 +478,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1467,16 +1475,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2943,25 +2951,33 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -2969,8 +2985,9 @@
         <f>AVERAGE(Sheet1!B3,Sheet2!B3,Sheet3!B3,Sheet4!B3,Sheet5!B3,Sheet6!B3,Sheet7!B3,Sheet8!B3,Sheet9!B3,Sheet10!B3)</f>
         <v>8517760</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -2978,8 +2995,15 @@
         <f>AVERAGE(Sheet1!B5,Sheet2!B5,Sheet3!B5,Sheet4!B5,Sheet5!B5,Sheet6!B5,Sheet7!B5,Sheet8!B5,Sheet9!B5,Sheet10!B5)</f>
         <v>9125811.1999999993</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <f>QUARTILE(B2:B51,1)</f>
+        <v>13540076.800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2987,8 +3011,15 @@
         <f>AVERAGE(Sheet1!B7,Sheet2!B7,Sheet3!B7,Sheet4!B7,Sheet5!B7,Sheet6!B7,Sheet7!B7,Sheet8!B7,Sheet9!B7,Sheet10!B7)</f>
         <v>47471027.200000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <f>QUARTILE(B3:B52,3)</f>
+        <v>3589443609.5999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -2997,7 +3028,7 @@
         <v>44453708.799999997</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>33533235.199999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -3015,7 +3046,7 @@
         <v>590954598.39999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
@@ -3024,7 +3055,7 @@
         <v>37623603.200000003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -3033,7 +3064,7 @@
         <v>416817971.19999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +3073,7 @@
         <v>74848768</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>60</v>
       </c>
@@ -3051,7 +3082,7 @@
         <v>80605619.200000003</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -3060,7 +3091,7 @@
         <v>3589443609.5999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3069,7 +3100,7 @@
         <v>3584624384</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3078,7 +3109,7 @@
         <v>40702151372.800003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3087,7 +3118,7 @@
         <v>3966412.7999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3409,12 +3440,202 @@
       <c r="B51" s="2">
         <f>AVERAGE(Sheet1!B105,Sheet2!B105,Sheet3!B105,Sheet4!B105,Sheet5!B105,Sheet6!B105,Sheet7!B105,Sheet8!B105,Sheet9!B105,Sheet10!B105)</f>
         <v>288151802214.40002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="7"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <f>Sheet1!B3</f>
+        <v>8649216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <f>Sheet1!B5</f>
+        <v>11856896</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <f>Sheet1!B7</f>
+        <v>47767040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <f>Sheet1!B9</f>
+        <v>42313728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <f>Sheet1!B11</f>
+        <v>33547008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <f>Sheet1!B13</f>
+        <v>591988736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <f>Sheet1!B15</f>
+        <v>36731648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <f>Sheet1!B17</f>
+        <v>429441536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <f>Sheet1!B19</f>
+        <v>73811712</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <f>Sheet1!B21</f>
+        <v>87314176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <f>Sheet1!B24</f>
+        <v>3985180416</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <f>Sheet1!B26</f>
+        <v>3975672832</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <f>Sheet1!B28</f>
+        <v>40161965312</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <f>Sheet1!B30</f>
+        <v>4129536</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <f>Sheet1!B32</f>
+        <v>49429192960</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <f>Sheet1!B34</f>
+        <v>3862528</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <f>Sheet1!B36</f>
+        <v>36227490304</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <f>Sheet1!B38</f>
+        <v>12020919808</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <f>Sheet1!B40</f>
+        <v>11297792</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <f>Sheet1!B42</f>
+        <v>294978188288</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <f>Sheet1!B45</f>
+        <v>437347584</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <f>Sheet1!B47</f>
+        <v>397350144</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <f>Sheet1!B49</f>
+        <v>453632</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <f>Sheet1!B51</f>
+        <v>455168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <f>Sheet1!B53</f>
+        <v>371968</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <f>Sheet1!B55</f>
+        <v>372992</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <f>Sheet1!B57</f>
+        <v>353280</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <f>Sheet1!B59</f>
+        <v>1210062592</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <f>Sheet1!B61</f>
+        <v>1671424</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/data-in-workbook.xlsx
+++ b/data-in-workbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -444,7 +444,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -623,11 +622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1424982944"/>
-        <c:axId val="1296751120"/>
+        <c:axId val="1421416032"/>
+        <c:axId val="1421419424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1424982944"/>
+        <c:axId val="1421416032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +672,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -739,12 +737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296751120"/>
+        <c:crossAx val="1421419424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1296751120"/>
+        <c:axId val="1421419424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424982944"/>
+        <c:crossAx val="1421416032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -864,7 +862,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1043,11 +1040,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1442226256"/>
-        <c:axId val="1440407856"/>
+        <c:axId val="1173393744"/>
+        <c:axId val="1173397136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1442226256"/>
+        <c:axId val="1173393744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1090,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1159,12 +1155,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440407856"/>
+        <c:crossAx val="1173397136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1440407856"/>
+        <c:axId val="1173397136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442226256"/>
+        <c:crossAx val="1173393744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1284,7 +1280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1463,11 +1458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029895504"/>
-        <c:axId val="1030622896"/>
+        <c:axId val="1436479792"/>
+        <c:axId val="1173405648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029895504"/>
+        <c:axId val="1436479792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1579,12 +1573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030622896"/>
+        <c:crossAx val="1173405648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030622896"/>
+        <c:axId val="1173405648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029895504"/>
+        <c:crossAx val="1436479792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1704,7 +1698,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1883,11 +1876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425484096"/>
-        <c:axId val="1029880160"/>
+        <c:axId val="1173426176"/>
+        <c:axId val="1173430208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425484096"/>
+        <c:axId val="1173426176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,7 +1926,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1999,12 +1991,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029880160"/>
+        <c:crossAx val="1173430208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1029880160"/>
+        <c:axId val="1173430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425484096"/>
+        <c:crossAx val="1173426176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2124,7 +2116,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2303,11 +2294,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425920640"/>
-        <c:axId val="1425267712"/>
+        <c:axId val="1173450464"/>
+        <c:axId val="1173454496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425920640"/>
+        <c:axId val="1173450464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,7 +2344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2419,12 +2409,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425267712"/>
+        <c:crossAx val="1173454496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1425267712"/>
+        <c:axId val="1173454496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425920640"/>
+        <c:crossAx val="1173450464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2544,7 +2534,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2723,11 +2712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029805456"/>
-        <c:axId val="1030054032"/>
+        <c:axId val="1173475104"/>
+        <c:axId val="1173479136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029805456"/>
+        <c:axId val="1173475104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2762,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2839,12 +2827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030054032"/>
+        <c:crossAx val="1173479136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030054032"/>
+        <c:axId val="1173479136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029805456"/>
+        <c:crossAx val="1173475104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2964,7 +2952,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3143,11 +3130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425923968"/>
-        <c:axId val="1030282128"/>
+        <c:axId val="1173497584"/>
+        <c:axId val="1173501616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425923968"/>
+        <c:axId val="1173497584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,7 +3180,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3259,12 +3245,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030282128"/>
+        <c:crossAx val="1173501616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030282128"/>
+        <c:axId val="1173501616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425923968"/>
+        <c:crossAx val="1173497584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3384,7 +3370,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3563,11 +3548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425038592"/>
-        <c:axId val="1030627216"/>
+        <c:axId val="1173519824"/>
+        <c:axId val="1173523856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425038592"/>
+        <c:axId val="1173519824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3679,12 +3663,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030627216"/>
+        <c:crossAx val="1173523856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030627216"/>
+        <c:axId val="1173523856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,7 +3724,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425038592"/>
+        <c:crossAx val="1173519824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3804,7 +3788,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3983,11 +3966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425400800"/>
-        <c:axId val="1029840256"/>
+        <c:axId val="1173544384"/>
+        <c:axId val="1173548416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425400800"/>
+        <c:axId val="1173544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,7 +4016,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4099,12 +4081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029840256"/>
+        <c:crossAx val="1173548416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1029840256"/>
+        <c:axId val="1173548416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425400800"/>
+        <c:crossAx val="1173544384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4224,7 +4206,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4403,11 +4384,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425973536"/>
-        <c:axId val="1421137440"/>
+        <c:axId val="1173569376"/>
+        <c:axId val="1173573408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425973536"/>
+        <c:axId val="1173569376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,7 +4434,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4519,12 +4499,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1421137440"/>
+        <c:crossAx val="1173573408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1421137440"/>
+        <c:axId val="1173573408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,7 +4560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425973536"/>
+        <c:crossAx val="1173569376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4644,7 +4624,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4823,11 +4802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425926464"/>
-        <c:axId val="1029849296"/>
+        <c:axId val="1396878544"/>
+        <c:axId val="1397238432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425926464"/>
+        <c:axId val="1396878544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4873,7 +4852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4939,12 +4917,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029849296"/>
+        <c:crossAx val="1397238432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1029849296"/>
+        <c:axId val="1397238432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5000,7 +4978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425926464"/>
+        <c:crossAx val="1396878544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5064,7 +5042,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5243,11 +5220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1400792208"/>
-        <c:axId val="1440434304"/>
+        <c:axId val="1420826368"/>
+        <c:axId val="1420829760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1400792208"/>
+        <c:axId val="1420826368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5293,7 +5270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5359,12 +5335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440434304"/>
+        <c:crossAx val="1420829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1440434304"/>
+        <c:axId val="1420829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,7 +5396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1400792208"/>
+        <c:crossAx val="1420826368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5484,7 +5460,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5663,11 +5638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425633760"/>
-        <c:axId val="1425636880"/>
+        <c:axId val="1171776320"/>
+        <c:axId val="1396931376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425633760"/>
+        <c:axId val="1171776320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5713,7 +5688,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5779,12 +5753,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425636880"/>
+        <c:crossAx val="1396931376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1425636880"/>
+        <c:axId val="1396931376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5840,7 +5814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425633760"/>
+        <c:crossAx val="1171776320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5904,7 +5878,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6083,11 +6056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1027657360"/>
-        <c:axId val="1298012016"/>
+        <c:axId val="1397500592"/>
+        <c:axId val="1397324624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1027657360"/>
+        <c:axId val="1397500592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6133,7 +6106,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6199,12 +6171,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1298012016"/>
+        <c:crossAx val="1397324624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1298012016"/>
+        <c:axId val="1397324624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6260,7 +6232,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027657360"/>
+        <c:crossAx val="1397500592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6324,7 +6296,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6503,11 +6474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090709280"/>
-        <c:axId val="1027651312"/>
+        <c:axId val="1397141712"/>
+        <c:axId val="1397160224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090709280"/>
+        <c:axId val="1397141712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6553,7 +6524,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6619,12 +6589,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1027651312"/>
+        <c:crossAx val="1397160224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1027651312"/>
+        <c:axId val="1397160224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6680,7 +6650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090709280"/>
+        <c:crossAx val="1397141712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6744,7 +6714,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6923,11 +6892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090714464"/>
-        <c:axId val="1090570464"/>
+        <c:axId val="1397272848"/>
+        <c:axId val="1397379776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090714464"/>
+        <c:axId val="1397272848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6973,7 +6942,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7039,12 +7007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090570464"/>
+        <c:crossAx val="1397379776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090570464"/>
+        <c:axId val="1397379776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7100,7 +7068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090714464"/>
+        <c:crossAx val="1397272848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7164,7 +7132,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7343,11 +7310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090786496"/>
-        <c:axId val="1090905040"/>
+        <c:axId val="1171682832"/>
+        <c:axId val="1397570752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090786496"/>
+        <c:axId val="1171682832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7393,7 +7360,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7459,12 +7425,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090905040"/>
+        <c:crossAx val="1397570752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090905040"/>
+        <c:axId val="1397570752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7520,7 +7486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090786496"/>
+        <c:crossAx val="1171682832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7584,7 +7550,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7763,11 +7728,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090743520"/>
-        <c:axId val="1090746912"/>
+        <c:axId val="1396840288"/>
+        <c:axId val="1297141696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090743520"/>
+        <c:axId val="1396840288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,7 +7778,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7879,12 +7843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090746912"/>
+        <c:crossAx val="1297141696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090746912"/>
+        <c:axId val="1297141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7940,7 +7904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090743520"/>
+        <c:crossAx val="1396840288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8004,7 +7968,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8183,11 +8146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090769056"/>
-        <c:axId val="1090772448"/>
+        <c:axId val="1396885968"/>
+        <c:axId val="1397654752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090769056"/>
+        <c:axId val="1396885968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8233,7 +8196,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8299,12 +8261,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090772448"/>
+        <c:crossAx val="1397654752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090772448"/>
+        <c:axId val="1397654752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8360,7 +8322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090769056"/>
+        <c:crossAx val="1396885968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8424,7 +8386,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8603,11 +8564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090800384"/>
-        <c:axId val="1397246864"/>
+        <c:axId val="1172058432"/>
+        <c:axId val="1172061552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090800384"/>
+        <c:axId val="1172058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,7 +8614,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8719,12 +8679,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1397246864"/>
+        <c:crossAx val="1172061552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1397246864"/>
+        <c:axId val="1172061552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8780,7 +8740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090800384"/>
+        <c:crossAx val="1172058432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8844,7 +8804,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9023,11 +8982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1028553504"/>
-        <c:axId val="1028453984"/>
+        <c:axId val="1171803728"/>
+        <c:axId val="1171806848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1028553504"/>
+        <c:axId val="1171803728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9073,7 +9032,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9139,12 +9097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028453984"/>
+        <c:crossAx val="1171806848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1028453984"/>
+        <c:axId val="1171806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,7 +9158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028553504"/>
+        <c:crossAx val="1171803728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9264,7 +9222,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9443,11 +9400,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1028330624"/>
-        <c:axId val="1091433168"/>
+        <c:axId val="1171827680"/>
+        <c:axId val="1171831072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1028330624"/>
+        <c:axId val="1171827680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9493,7 +9450,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9559,12 +9515,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1091433168"/>
+        <c:crossAx val="1171831072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1091433168"/>
+        <c:axId val="1171831072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9620,7 +9576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028330624"/>
+        <c:crossAx val="1171827680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9684,7 +9640,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9863,11 +9818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1296854192"/>
-        <c:axId val="1440114944"/>
+        <c:axId val="1297844864"/>
+        <c:axId val="1396953520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1296854192"/>
+        <c:axId val="1297844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9913,7 +9868,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9979,12 +9933,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440114944"/>
+        <c:crossAx val="1396953520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1440114944"/>
+        <c:axId val="1396953520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10040,7 +9994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296854192"/>
+        <c:crossAx val="1297844864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10104,7 +10058,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10283,11 +10236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1028209728"/>
-        <c:axId val="1028528512"/>
+        <c:axId val="1172115808"/>
+        <c:axId val="1172119200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1028209728"/>
+        <c:axId val="1172115808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10333,7 +10286,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10399,12 +10351,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028528512"/>
+        <c:crossAx val="1172119200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1028528512"/>
+        <c:axId val="1172119200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10460,7 +10412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028209728"/>
+        <c:crossAx val="1172115808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10524,7 +10476,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10703,11 +10654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1505086912"/>
-        <c:axId val="1505090032"/>
+        <c:axId val="1172140016"/>
+        <c:axId val="1172143408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1505086912"/>
+        <c:axId val="1172140016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10753,7 +10704,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10819,12 +10769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505090032"/>
+        <c:crossAx val="1172143408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505090032"/>
+        <c:axId val="1172143408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10880,7 +10830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505086912"/>
+        <c:crossAx val="1172140016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10944,7 +10894,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11123,11 +11072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029168480"/>
-        <c:axId val="1505666032"/>
+        <c:axId val="1171725216"/>
+        <c:axId val="1171728608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029168480"/>
+        <c:axId val="1171725216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11173,7 +11122,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11239,12 +11187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505666032"/>
+        <c:crossAx val="1171728608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505666032"/>
+        <c:axId val="1171728608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11300,7 +11248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029168480"/>
+        <c:crossAx val="1171725216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11364,7 +11312,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11543,11 +11490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1093249760"/>
-        <c:axId val="1093253152"/>
+        <c:axId val="1171264512"/>
+        <c:axId val="1171267904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1093249760"/>
+        <c:axId val="1171264512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11593,7 +11540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11659,12 +11605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093253152"/>
+        <c:crossAx val="1171267904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1093253152"/>
+        <c:axId val="1171267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11720,7 +11666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093249760"/>
+        <c:crossAx val="1171264512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11784,7 +11730,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11963,11 +11908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029647104"/>
-        <c:axId val="1504718816"/>
+        <c:axId val="1171288992"/>
+        <c:axId val="1171292384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029647104"/>
+        <c:axId val="1171288992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12013,7 +11958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12079,12 +12023,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1504718816"/>
+        <c:crossAx val="1171292384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1504718816"/>
+        <c:axId val="1171292384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12140,7 +12084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029647104"/>
+        <c:crossAx val="1171288992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12204,7 +12148,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12383,11 +12326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1093044752"/>
-        <c:axId val="1505282912"/>
+        <c:axId val="1171312704"/>
+        <c:axId val="1171316096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1093044752"/>
+        <c:axId val="1171312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12433,7 +12376,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12499,12 +12441,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505282912"/>
+        <c:crossAx val="1171316096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505282912"/>
+        <c:axId val="1171316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12560,7 +12502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093044752"/>
+        <c:crossAx val="1171312704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12624,7 +12566,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12803,11 +12744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1505064976"/>
-        <c:axId val="1505181712"/>
+        <c:axId val="1171336496"/>
+        <c:axId val="1171339888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1505064976"/>
+        <c:axId val="1171336496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12853,7 +12794,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12919,12 +12859,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505181712"/>
+        <c:crossAx val="1171339888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505181712"/>
+        <c:axId val="1171339888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12980,7 +12920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505064976"/>
+        <c:crossAx val="1171336496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13044,7 +12984,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13223,11 +13162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1505339424"/>
-        <c:axId val="1505342816"/>
+        <c:axId val="1171360416"/>
+        <c:axId val="1171363808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1505339424"/>
+        <c:axId val="1171360416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13273,7 +13212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13339,12 +13277,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505342816"/>
+        <c:crossAx val="1171363808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505342816"/>
+        <c:axId val="1171363808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13400,7 +13338,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505339424"/>
+        <c:crossAx val="1171360416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13464,7 +13402,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13643,11 +13580,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1505118064"/>
-        <c:axId val="1505121184"/>
+        <c:axId val="1171384176"/>
+        <c:axId val="1171387568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1505118064"/>
+        <c:axId val="1171384176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13693,7 +13630,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13759,12 +13695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505121184"/>
+        <c:crossAx val="1171387568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505121184"/>
+        <c:axId val="1171387568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13820,7 +13756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505118064"/>
+        <c:crossAx val="1171384176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13884,7 +13820,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14063,11 +13998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1505528368"/>
-        <c:axId val="1505575712"/>
+        <c:axId val="1171407968"/>
+        <c:axId val="1171411360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1505528368"/>
+        <c:axId val="1171407968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14113,7 +14048,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14179,12 +14113,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505575712"/>
+        <c:crossAx val="1171411360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505575712"/>
+        <c:axId val="1171411360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14240,7 +14174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505528368"/>
+        <c:crossAx val="1171407968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14304,7 +14238,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14483,11 +14416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029625328"/>
-        <c:axId val="1029628448"/>
+        <c:axId val="1396818784"/>
+        <c:axId val="1297919568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029625328"/>
+        <c:axId val="1396818784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14533,7 +14466,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14599,12 +14531,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029628448"/>
+        <c:crossAx val="1297919568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1029628448"/>
+        <c:axId val="1297919568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14660,7 +14592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029625328"/>
+        <c:crossAx val="1396818784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14724,7 +14656,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14903,11 +14834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1093564672"/>
-        <c:axId val="1506206256"/>
+        <c:axId val="1171431760"/>
+        <c:axId val="1171435152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1093564672"/>
+        <c:axId val="1171431760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14953,7 +14884,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15019,12 +14949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1506206256"/>
+        <c:crossAx val="1171435152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1506206256"/>
+        <c:axId val="1171435152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15080,7 +15010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093564672"/>
+        <c:crossAx val="1171431760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15144,7 +15074,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15323,11 +15252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1425093104"/>
-        <c:axId val="1118371760"/>
+        <c:axId val="1171455552"/>
+        <c:axId val="1171458944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1425093104"/>
+        <c:axId val="1171455552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15373,7 +15302,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15439,12 +15367,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118371760"/>
+        <c:crossAx val="1171458944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1118371760"/>
+        <c:axId val="1171458944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15500,7 +15428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425093104"/>
+        <c:crossAx val="1171455552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15564,7 +15492,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15743,11 +15670,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031214272"/>
-        <c:axId val="1031153600"/>
+        <c:axId val="1171479264"/>
+        <c:axId val="1171482656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031214272"/>
+        <c:axId val="1171479264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15793,7 +15720,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15859,12 +15785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031153600"/>
+        <c:crossAx val="1171482656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031153600"/>
+        <c:axId val="1171482656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15920,7 +15846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031214272"/>
+        <c:crossAx val="1171479264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15984,7 +15910,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16163,11 +16088,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1118347664"/>
-        <c:axId val="1118351056"/>
+        <c:axId val="1171503056"/>
+        <c:axId val="1171506448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1118347664"/>
+        <c:axId val="1171503056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16213,7 +16138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16279,12 +16203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118351056"/>
+        <c:crossAx val="1171506448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1118351056"/>
+        <c:axId val="1171506448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16340,7 +16264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118347664"/>
+        <c:crossAx val="1171503056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16404,7 +16328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16583,11 +16506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031126256"/>
-        <c:axId val="1031092944"/>
+        <c:axId val="1171526848"/>
+        <c:axId val="1171530240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031126256"/>
+        <c:axId val="1171526848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16633,7 +16556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16699,12 +16621,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031092944"/>
+        <c:crossAx val="1171530240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031092944"/>
+        <c:axId val="1171530240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16760,7 +16682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031126256"/>
+        <c:crossAx val="1171526848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16824,7 +16746,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17003,11 +16924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031129632"/>
-        <c:axId val="1031133024"/>
+        <c:axId val="1171550560"/>
+        <c:axId val="1171553952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031129632"/>
+        <c:axId val="1171550560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17053,7 +16974,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17119,12 +17039,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031133024"/>
+        <c:crossAx val="1171553952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031133024"/>
+        <c:axId val="1171553952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17180,7 +17100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031129632"/>
+        <c:crossAx val="1171550560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17244,7 +17164,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17423,11 +17342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031067472"/>
-        <c:axId val="1031058544"/>
+        <c:axId val="1171574352"/>
+        <c:axId val="1171577744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031067472"/>
+        <c:axId val="1171574352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17473,7 +17392,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17539,12 +17457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031058544"/>
+        <c:crossAx val="1171577744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031058544"/>
+        <c:axId val="1171577744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17600,7 +17518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031067472"/>
+        <c:crossAx val="1171574352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17664,7 +17582,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17843,11 +17760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031028240"/>
-        <c:axId val="1031031360"/>
+        <c:axId val="1171598192"/>
+        <c:axId val="1171601584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031028240"/>
+        <c:axId val="1171598192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17893,7 +17810,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17959,12 +17875,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031031360"/>
+        <c:crossAx val="1171601584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1031031360"/>
+        <c:axId val="1171601584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18020,7 +17936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031028240"/>
+        <c:crossAx val="1171598192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18084,7 +18000,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18263,11 +18178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1031004896"/>
-        <c:axId val="1030996896"/>
+        <c:axId val="1171621952"/>
+        <c:axId val="1171625344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1031004896"/>
+        <c:axId val="1171621952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18313,7 +18228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18379,12 +18293,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030996896"/>
+        <c:crossAx val="1171625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030996896"/>
+        <c:axId val="1171625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18440,7 +18354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1031004896"/>
+        <c:crossAx val="1171621952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18504,7 +18418,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18683,11 +18596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1030983328"/>
-        <c:axId val="1030966480"/>
+        <c:axId val="1171646432"/>
+        <c:axId val="1171649824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1030983328"/>
+        <c:axId val="1171646432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18733,7 +18646,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18799,12 +18711,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030966480"/>
+        <c:crossAx val="1171649824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030966480"/>
+        <c:axId val="1171649824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18860,7 +18772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030983328"/>
+        <c:crossAx val="1171646432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18924,7 +18836,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19103,11 +19014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1028901056"/>
-        <c:axId val="1028657616"/>
+        <c:axId val="1395884672"/>
+        <c:axId val="1396103760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1028901056"/>
+        <c:axId val="1395884672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19153,7 +19064,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19219,12 +19129,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028657616"/>
+        <c:crossAx val="1396103760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1028657616"/>
+        <c:axId val="1396103760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19280,7 +19190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028901056"/>
+        <c:crossAx val="1395884672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19344,7 +19254,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19523,11 +19432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1030949248"/>
-        <c:axId val="1030941712"/>
+        <c:axId val="1171670144"/>
+        <c:axId val="1171673536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1030949248"/>
+        <c:axId val="1171670144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19573,7 +19482,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19639,12 +19547,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030941712"/>
+        <c:crossAx val="1171673536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1030941712"/>
+        <c:axId val="1171673536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19700,7 +19608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1030949248"/>
+        <c:crossAx val="1171670144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19764,7 +19672,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19943,11 +19850,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1029608816"/>
-        <c:axId val="1505866544"/>
+        <c:axId val="1396160224"/>
+        <c:axId val="1396163616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1029608816"/>
+        <c:axId val="1396160224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19993,7 +19900,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20059,12 +19965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505866544"/>
+        <c:crossAx val="1396163616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1505866544"/>
+        <c:axId val="1396163616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20120,7 +20026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029608816"/>
+        <c:crossAx val="1396160224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20184,7 +20090,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20363,11 +20268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1441705280"/>
-        <c:axId val="1441708432"/>
+        <c:axId val="1396122224"/>
+        <c:axId val="1396128352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1441705280"/>
+        <c:axId val="1396122224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20413,7 +20318,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20479,12 +20383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1441708432"/>
+        <c:crossAx val="1396128352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1441708432"/>
+        <c:axId val="1396128352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20540,7 +20444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1441705280"/>
+        <c:crossAx val="1396122224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20604,7 +20508,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20783,11 +20686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1440350976"/>
-        <c:axId val="1440359456"/>
+        <c:axId val="1396027616"/>
+        <c:axId val="1436383440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1440350976"/>
+        <c:axId val="1396027616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20833,7 +20736,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20899,12 +20801,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440359456"/>
+        <c:crossAx val="1436383440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1440359456"/>
+        <c:axId val="1436383440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20960,7 +20862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1440350976"/>
+        <c:crossAx val="1396027616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21024,7 +20926,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21203,11 +21104,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1438533952"/>
-        <c:axId val="1438536144"/>
+        <c:axId val="1173369824"/>
+        <c:axId val="1173373216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1438533952"/>
+        <c:axId val="1173369824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21253,7 +21154,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21319,12 +21219,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438536144"/>
+        <c:crossAx val="1173373216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1438536144"/>
+        <c:axId val="1173373216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21380,7 +21280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1438533952"/>
+        <c:crossAx val="1173369824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -51099,7 +50999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -51511,43 +51411,43 @@
         <v>10</v>
       </c>
       <c r="C13" s="6">
-        <f>AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C13:L13" si="0">AVERAGE(C3:C12)</f>
         <v>8517760</v>
       </c>
       <c r="D13" s="6">
-        <f>AVERAGE(D3:D12)</f>
+        <f t="shared" si="0"/>
         <v>9125811.1999999993</v>
       </c>
       <c r="E13" s="6">
-        <f>AVERAGE(E3:E12)</f>
+        <f t="shared" si="0"/>
         <v>47471027.200000003</v>
       </c>
       <c r="F13" s="6">
-        <f>AVERAGE(F3:F12)</f>
+        <f t="shared" si="0"/>
         <v>44453708.799999997</v>
       </c>
       <c r="G13" s="6">
-        <f>AVERAGE(G3:G12)</f>
+        <f t="shared" si="0"/>
         <v>33533235.199999999</v>
       </c>
       <c r="H13" s="6">
-        <f>AVERAGE(H3:H12)</f>
+        <f t="shared" si="0"/>
         <v>590954598.39999998</v>
       </c>
       <c r="I13" s="6">
-        <f>AVERAGE(I3:I12)</f>
+        <f t="shared" si="0"/>
         <v>37623603.200000003</v>
       </c>
       <c r="J13" s="6">
-        <f>AVERAGE(J3:J12)</f>
+        <f t="shared" si="0"/>
         <v>416817971.19999999</v>
       </c>
       <c r="K13" s="6">
-        <f>AVERAGE(K3:K12)</f>
+        <f t="shared" si="0"/>
         <v>74848768</v>
       </c>
       <c r="L13" s="6">
-        <f>AVERAGE(L3:L12)</f>
+        <f t="shared" si="0"/>
         <v>80605619.200000003</v>
       </c>
     </row>
@@ -51940,43 +51840,43 @@
         <v>10</v>
       </c>
       <c r="C26" s="6">
-        <f>AVERAGE(C16:C25)</f>
+        <f t="shared" ref="C26:L26" si="1">AVERAGE(C16:C25)</f>
         <v>3589443609.5999999</v>
       </c>
       <c r="D26" s="6">
-        <f>AVERAGE(D16:D25)</f>
+        <f t="shared" si="1"/>
         <v>3584624384</v>
       </c>
       <c r="E26" s="6">
-        <f>AVERAGE(E16:E25)</f>
+        <f t="shared" si="1"/>
         <v>40702151372.800003</v>
       </c>
       <c r="F26" s="6">
-        <f>AVERAGE(F16:F25)</f>
+        <f t="shared" si="1"/>
         <v>3966412.7999999998</v>
       </c>
       <c r="G26" s="6">
-        <f>AVERAGE(G16:G25)</f>
+        <f t="shared" si="1"/>
         <v>49789174528</v>
       </c>
       <c r="H26" s="6">
-        <f>AVERAGE(H16:H25)</f>
+        <f t="shared" si="1"/>
         <v>3889894.4</v>
       </c>
       <c r="I26" s="6">
-        <f>AVERAGE(I16:I25)</f>
+        <f t="shared" si="1"/>
         <v>36175382988.800003</v>
       </c>
       <c r="J26" s="6">
-        <f>AVERAGE(J16:J25)</f>
+        <f t="shared" si="1"/>
         <v>11972129280</v>
       </c>
       <c r="K26" s="6">
-        <f>AVERAGE(K16:K25)</f>
+        <f t="shared" si="1"/>
         <v>9595136</v>
       </c>
       <c r="L26" s="6">
-        <f>AVERAGE(L16:L25)</f>
+        <f t="shared" si="1"/>
         <v>288021667200</v>
       </c>
     </row>
@@ -52387,43 +52287,43 @@
         <v>10</v>
       </c>
       <c r="C39" s="6">
-        <f>AVERAGE(C29:C38)</f>
+        <f t="shared" ref="C39:L39" si="2">AVERAGE(C29:C38)</f>
         <v>368955571.19999999</v>
       </c>
       <c r="D39" s="6">
-        <f>AVERAGE(D29:D38)</f>
+        <f t="shared" si="2"/>
         <v>364095641.60000002</v>
       </c>
       <c r="E39" s="6">
-        <f>AVERAGE(E29:E38)</f>
+        <f t="shared" si="2"/>
         <v>465817.59999999998</v>
       </c>
       <c r="F39" s="6">
-        <f>AVERAGE(F29:F38)</f>
+        <f t="shared" si="2"/>
         <v>492108.79999999999</v>
       </c>
       <c r="G39" s="6">
-        <f>AVERAGE(G29:G38)</f>
+        <f t="shared" si="2"/>
         <v>397875.20000000001</v>
       </c>
       <c r="H39" s="6">
-        <f>AVERAGE(H29:H38)</f>
+        <f t="shared" si="2"/>
         <v>359347.20000000001</v>
       </c>
       <c r="I39" s="6">
-        <f>AVERAGE(I29:I38)</f>
+        <f t="shared" si="2"/>
         <v>413952</v>
       </c>
       <c r="J39" s="6">
-        <f>AVERAGE(J29:J38)</f>
+        <f t="shared" si="2"/>
         <v>1207156864</v>
       </c>
       <c r="K39" s="6">
-        <f>AVERAGE(K29:K38)</f>
+        <f t="shared" si="2"/>
         <v>1518643.2</v>
       </c>
       <c r="L39" s="6">
-        <f>AVERAGE(L29:L38)</f>
+        <f t="shared" si="2"/>
         <v>1449267.2</v>
       </c>
     </row>
@@ -52822,43 +52722,43 @@
         <v>10</v>
       </c>
       <c r="C52" s="6">
-        <f>AVERAGE(C42:C51)</f>
+        <f t="shared" ref="C52:L52" si="3">AVERAGE(C42:C51)</f>
         <v>113315200</v>
       </c>
       <c r="D52" s="6">
-        <f>AVERAGE(D42:D51)</f>
+        <f t="shared" si="3"/>
         <v>64307737.600000001</v>
       </c>
       <c r="E52" s="6">
-        <f>AVERAGE(E42:E51)</f>
+        <f t="shared" si="3"/>
         <v>52503782.399999999</v>
       </c>
       <c r="F52" s="6">
-        <f>AVERAGE(F42:F51)</f>
+        <f t="shared" si="3"/>
         <v>26532838.399999999</v>
       </c>
       <c r="G52" s="6">
-        <f>AVERAGE(G42:G51)</f>
+        <f t="shared" si="3"/>
         <v>23113574.399999999</v>
       </c>
       <c r="H52" s="6">
-        <f>AVERAGE(H42:H51)</f>
+        <f t="shared" si="3"/>
         <v>19339955.199999999</v>
       </c>
       <c r="I52" s="6">
-        <f>AVERAGE(I42:I51)</f>
+        <f t="shared" si="3"/>
         <v>21401830.399999999</v>
       </c>
       <c r="J52" s="6">
-        <f>AVERAGE(J42:J51)</f>
+        <f t="shared" si="3"/>
         <v>83968384</v>
       </c>
       <c r="K52" s="6">
-        <f>AVERAGE(K42:K51)</f>
+        <f t="shared" si="3"/>
         <v>11606784</v>
       </c>
       <c r="L52" s="6">
-        <f>AVERAGE(L42:L51)</f>
+        <f t="shared" si="3"/>
         <v>48080128</v>
       </c>
     </row>
@@ -53250,43 +53150,43 @@
         <v>10</v>
       </c>
       <c r="C65" s="6">
-        <f>AVERAGE(C55:C64)</f>
+        <f t="shared" ref="C65:L65" si="4">AVERAGE(C55:C64)</f>
         <v>4080232140.8000002</v>
       </c>
       <c r="D65" s="6">
-        <f>AVERAGE(D55:D64)</f>
+        <f t="shared" si="4"/>
         <v>4022153574.4000001</v>
       </c>
       <c r="E65" s="6">
-        <f>AVERAGE(E55:E64)</f>
+        <f t="shared" si="4"/>
         <v>40802592000</v>
       </c>
       <c r="F65" s="6">
-        <f>AVERAGE(F55:F64)</f>
+        <f t="shared" si="4"/>
         <v>75445068.799999997</v>
       </c>
       <c r="G65" s="6">
-        <f>AVERAGE(G55:G64)</f>
+        <f t="shared" si="4"/>
         <v>49846219212.800003</v>
       </c>
       <c r="H65" s="6">
-        <f>AVERAGE(H55:H64)</f>
+        <f t="shared" si="4"/>
         <v>614543795.20000005</v>
       </c>
       <c r="I65" s="6">
-        <f>AVERAGE(I55:I64)</f>
+        <f t="shared" si="4"/>
         <v>36234822374.400002</v>
       </c>
       <c r="J65" s="6">
-        <f>AVERAGE(J55:J64)</f>
+        <f t="shared" si="4"/>
         <v>13680072499.200001</v>
       </c>
       <c r="K65" s="6">
-        <f>AVERAGE(K55:K64)</f>
+        <f t="shared" si="4"/>
         <v>97569331.200000003</v>
       </c>
       <c r="L65" s="6">
-        <f>AVERAGE(L55:L64)</f>
+        <f t="shared" si="4"/>
         <v>288151802214.40002</v>
       </c>
     </row>
